--- a/BackTest/2019-10-30 BackTest TRV.xlsx
+++ b/BackTest/2019-10-30 BackTest TRV.xlsx
@@ -451,7 +451,7 @@
         <v>56.79</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,13 +486,17 @@
         <v>56.79999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -521,14 +525,22 @@
         <v>56.77999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -556,14 +568,22 @@
         <v>56.76999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -597,8 +617,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,8 +658,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -667,8 +699,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,8 +740,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -737,8 +781,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -772,8 +822,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -807,8 +863,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -842,8 +904,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -877,8 +945,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,8 +986,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +1027,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1068,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1109,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1191,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1355,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1396,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1437,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1478,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1519,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1437,8 +1601,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1472,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1507,8 +1683,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1542,8 +1724,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1765,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1806,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1644,13 +1844,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>1.010679442508711</v>
       </c>
     </row>
     <row r="37">
@@ -1679,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1749,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2274,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2344,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -7976,13 +8182,17 @@
         <v>56.88499999999999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="K217" t="n">
+        <v>56.6</v>
+      </c>
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
@@ -8011,14 +8221,22 @@
         <v>56.86999999999999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="K218" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +8264,22 @@
         <v>56.86499999999999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="K219" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -11196,20 +11422,14 @@
         <v>56.835</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>56.7</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11237,20 +11457,14 @@
         <v>56.815</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11278,20 +11492,14 @@
         <v>56.725</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11319,20 +11527,14 @@
         <v>56.675</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>56.2</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11360,20 +11562,14 @@
         <v>56.63</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11401,20 +11597,14 @@
         <v>56.6</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11442,20 +11632,14 @@
         <v>56.56</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>56.2</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11483,20 +11667,14 @@
         <v>56.52999999999999</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11524,20 +11702,14 @@
         <v>56.505</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11565,20 +11737,14 @@
         <v>56.485</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11606,20 +11772,14 @@
         <v>56.45500000000001</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11647,20 +11807,14 @@
         <v>56.43000000000001</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11688,20 +11842,14 @@
         <v>56.42</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11729,20 +11877,14 @@
         <v>56.40500000000001</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11770,20 +11912,14 @@
         <v>56.40000000000001</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11811,20 +11947,14 @@
         <v>56.39000000000002</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11852,20 +11982,14 @@
         <v>56.39000000000002</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11893,20 +12017,14 @@
         <v>56.39000000000002</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11934,20 +12052,14 @@
         <v>56.40500000000002</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11975,20 +12087,14 @@
         <v>56.42500000000003</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12016,20 +12122,14 @@
         <v>56.41500000000002</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12057,20 +12157,14 @@
         <v>56.41000000000003</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12098,20 +12192,14 @@
         <v>56.41000000000003</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12139,20 +12227,14 @@
         <v>56.42500000000003</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12180,20 +12262,14 @@
         <v>56.43500000000002</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12221,20 +12297,14 @@
         <v>56.43500000000002</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12262,20 +12332,14 @@
         <v>56.45000000000002</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12303,20 +12367,14 @@
         <v>56.45500000000003</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12344,20 +12402,14 @@
         <v>56.44500000000003</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12385,20 +12437,14 @@
         <v>56.45000000000002</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12426,20 +12472,14 @@
         <v>56.45500000000002</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12467,20 +12507,14 @@
         <v>56.46000000000002</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12508,20 +12542,14 @@
         <v>56.45000000000002</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12549,20 +12577,14 @@
         <v>56.45000000000002</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12590,20 +12612,14 @@
         <v>56.45000000000002</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12631,20 +12647,14 @@
         <v>56.45000000000002</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12672,20 +12682,14 @@
         <v>56.44500000000003</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12713,20 +12717,14 @@
         <v>56.44000000000003</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12754,20 +12752,14 @@
         <v>56.43500000000004</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12795,20 +12787,14 @@
         <v>56.43000000000004</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12836,20 +12822,14 @@
         <v>56.42500000000005</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12877,20 +12857,14 @@
         <v>56.42000000000005</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12918,20 +12892,14 @@
         <v>56.41500000000006</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12959,20 +12927,14 @@
         <v>56.41000000000006</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13000,20 +12962,14 @@
         <v>56.42000000000006</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13041,20 +12997,14 @@
         <v>56.40500000000005</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13082,20 +13032,14 @@
         <v>56.40500000000005</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13123,20 +13067,14 @@
         <v>56.41000000000005</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13164,20 +13102,14 @@
         <v>56.42000000000005</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13205,20 +13137,14 @@
         <v>56.42000000000005</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13246,20 +13172,14 @@
         <v>56.42000000000005</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13287,20 +13207,14 @@
         <v>56.42000000000005</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13328,20 +13242,14 @@
         <v>56.42500000000005</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13369,20 +13277,14 @@
         <v>56.43000000000004</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13410,20 +13312,14 @@
         <v>56.43500000000004</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13451,20 +13347,14 @@
         <v>56.46000000000004</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13492,20 +13382,14 @@
         <v>56.48500000000003</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13533,20 +13417,14 @@
         <v>56.50500000000003</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13574,20 +13452,14 @@
         <v>56.51500000000002</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13615,20 +13487,14 @@
         <v>56.52000000000002</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13656,20 +13522,14 @@
         <v>56.54000000000001</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13697,20 +13557,14 @@
         <v>56.57000000000001</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>57</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13738,20 +13592,14 @@
         <v>56.6</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>57</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13779,20 +13627,14 @@
         <v>56.63</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>57</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13827,11 +13669,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13866,11 +13704,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13905,11 +13739,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13944,11 +13774,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13983,11 +13809,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14022,11 +13844,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14061,11 +13879,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14100,11 +13914,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14139,11 +13949,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +13984,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14217,11 +14019,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14256,11 +14054,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14295,11 +14089,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14334,11 +14124,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14373,11 +14159,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14412,11 +14194,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14451,11 +14229,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14490,11 +14264,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14529,11 +14299,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14568,11 +14334,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14607,11 +14369,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +14404,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14685,11 +14439,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14724,11 +14474,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14763,11 +14509,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14802,11 +14544,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14841,11 +14579,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14880,11 +14614,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14919,11 +14649,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14958,11 +14684,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14997,11 +14719,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15036,11 +14754,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15075,11 +14789,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15114,11 +14824,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15153,11 +14859,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15185,20 +14887,14 @@
         <v>56.88999999999999</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>56.2</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15226,20 +14922,14 @@
         <v>56.82499999999999</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15267,20 +14957,14 @@
         <v>56.76499999999999</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15308,20 +14992,14 @@
         <v>56.73999999999999</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15349,20 +15027,14 @@
         <v>56.71999999999999</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15390,20 +15062,14 @@
         <v>56.66999999999999</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15431,20 +15097,14 @@
         <v>56.625</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15472,20 +15132,14 @@
         <v>56.605</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15513,20 +15167,14 @@
         <v>56.59500000000001</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15554,20 +15202,14 @@
         <v>56.55500000000002</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15595,20 +15237,14 @@
         <v>56.51500000000002</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15636,20 +15272,14 @@
         <v>56.47000000000003</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15677,20 +15307,14 @@
         <v>56.42000000000003</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15718,20 +15342,14 @@
         <v>56.40000000000002</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15759,20 +15377,14 @@
         <v>56.37500000000002</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>56.2</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15800,20 +15412,14 @@
         <v>56.34500000000003</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>56</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15841,20 +15447,14 @@
         <v>56.32500000000002</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15882,20 +15482,14 @@
         <v>56.30500000000002</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15923,20 +15517,14 @@
         <v>56.28500000000001</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>56</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15964,20 +15552,14 @@
         <v>56.28500000000001</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16005,20 +15587,14 @@
         <v>56.29000000000001</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16046,20 +15622,14 @@
         <v>56.29500000000002</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest TRV.xlsx
+++ b/BackTest/2019-10-30 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,11 +1672,17 @@
         <v>-8055132.06295719</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>56</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1711,17 @@
         <v>-7991582.697484654</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>55.9</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1750,17 @@
         <v>-7890281.534395582</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.8</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1789,17 @@
         <v>-7765762.39504339</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>56.9</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1828,17 @@
         <v>-7623749.96094339</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1867,17 @@
         <v>-7521779.036743389</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>57.5</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1910,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1947,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1984,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2021,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2058,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2095,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2128,17 @@
         <v>-7734914.606830691</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2167,17 @@
         <v>-7734914.606830691</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2206,17 @@
         <v>-7734914.606830691</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,7 +2245,7 @@
         <v>-7753196.657930691</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>56.5</v>
@@ -2175,7 +2253,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2206,7 +2284,7 @@
         <v>-7808901.28313069</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>56.1</v>
@@ -2245,7 +2323,7 @@
         <v>-7808901.28313069</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>56</v>
@@ -2284,7 +2362,7 @@
         <v>-7756727.387130691</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>56</v>
@@ -2323,7 +2401,7 @@
         <v>-7564501.820939632</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>56.4</v>
@@ -2362,7 +2440,7 @@
         <v>-7285436.759039632</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>56.6</v>
@@ -2401,7 +2479,7 @@
         <v>-7081243.407539632</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>56.9</v>
@@ -2440,7 +2518,7 @@
         <v>-7081243.407539632</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>57.4</v>
@@ -2479,7 +2557,7 @@
         <v>-7116553.922139633</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>57.4</v>
@@ -2518,7 +2596,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>57.1</v>
@@ -2557,7 +2635,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>57.3</v>
@@ -2596,7 +2674,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>57.3</v>
@@ -2635,7 +2713,7 @@
         <v>-7017341.314839632</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>57.3</v>
@@ -2674,7 +2752,7 @@
         <v>-6936147.293837716</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>57.5</v>
@@ -2713,11 +2791,9 @@
         <v>-6977929.802373128</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2752,11 +2828,9 @@
         <v>-6899260.637873128</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>56.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2791,11 +2865,9 @@
         <v>-6831955.673375219</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2830,11 +2902,9 @@
         <v>-6846954.582677309</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2869,11 +2939,9 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2908,11 +2976,9 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>56.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2947,11 +3013,9 @@
         <v>-6907293.580643506</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>56.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2986,7 +3050,7 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>56.7</v>
@@ -3025,7 +3089,7 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>56.8</v>
@@ -3064,11 +3128,9 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>56.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3103,7 +3165,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>57</v>
@@ -3438,9 +3500,11 @@
         <v>-5822025.188748147</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>57.7</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3586,11 +3650,9 @@
         <v>12174249.12885185</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -4772,16 +4834,18 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
       <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -4811,7 +4875,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4912,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +4949,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +4986,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5023,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5060,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5097,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5134,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5171,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5208,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5245,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5282,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5315,15 @@
         <v>64605240.33552872</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5352,15 @@
         <v>64530404.23492873</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5389,15 @@
         <v>64941392.51102873</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5430,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5467,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5504,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5541,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5578,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5615,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5652,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5689,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5726,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5763,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5800,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5837,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5870,15 @@
         <v>65097978.55568185</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5907,15 @@
         <v>65091413.38138185</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5944,15 @@
         <v>65034032.14468185</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5981,15 @@
         <v>64946668.96818185</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6018,15 @@
         <v>64944879.42768185</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6055,15 @@
         <v>64946430.04002675</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6092,15 @@
         <v>64946366.62112675</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6133,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6166,15 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6203,15 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6240,15 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6277,15 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6314,15 @@
         <v>65003362.96244628</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6351,15 @@
         <v>65048455.81834628</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6388,15 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6425,15 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6462,15 @@
         <v>65237452.40174627</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6499,15 @@
         <v>65404319.34709283</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6536,15 @@
         <v>65386628.70929283</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6573,15 @@
         <v>65341337.38999283</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6610,15 @@
         <v>65213886.81339283</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6647,15 @@
         <v>65336132.67319283</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6684,15 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6721,15 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6758,15 @@
         <v>65187796.45569283</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6795,15 @@
         <v>65133664.85709283</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6832,15 @@
         <v>65195712.92089283</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6869,15 @@
         <v>65202926.80559283</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6906,15 @@
         <v>65238923.34139283</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6943,15 @@
         <v>65208640.53979283</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6980,15 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7017,15 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7054,15 @@
         <v>65166531.88099283</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7091,15 @@
         <v>65034220.85809283</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7128,15 @@
         <v>65034726.77734915</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7165,15 @@
         <v>65034051.95623799</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7202,15 @@
         <v>65014944.65864574</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7239,15 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7276,15 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7313,15 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7350,15 @@
         <v>64968802.81972526</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7387,15 @@
         <v>64952745.54342526</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7424,15 @@
         <v>64955598.26982526</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7461,15 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7502,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7539,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7572,15 @@
         <v>65122797.32680479</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7609,15 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7646,15 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7683,15 @@
         <v>65117149.96704262</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7720,15 @@
         <v>65159472.46466635</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7757,15 @@
         <v>65018805.09466635</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7794,15 @@
         <v>65012733.30346636</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7831,15 @@
         <v>65023062.01536636</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7868,15 @@
         <v>65022324.81616636</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7905,15 @@
         <v>65007240.12046637</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7946,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7983,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8020,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8057,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8094,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +8127,15 @@
         <v>64989131.29112556</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8164,15 @@
         <v>65012883.88062556</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +8201,15 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8238,15 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +8275,15 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8312,15 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8349,15 @@
         <v>65042283.07302556</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8386,15 @@
         <v>65042273.07302556</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8423,15 @@
         <v>65075388.43332556</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8460,15 @@
         <v>65104314.02852556</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8497,15 @@
         <v>65120345.34452556</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8534,15 @@
         <v>65114313.39542556</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8571,15 @@
         <v>65114303.39542556</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8608,15 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8645,15 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8682,15 @@
         <v>65075653.38762556</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8719,15 @@
         <v>65127818.19842556</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8756,15 @@
         <v>65145543.88372556</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8793,15 @@
         <v>64983341.46762556</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8830,15 @@
         <v>64934306.87402556</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8867,15 @@
         <v>65058558.97152556</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8908,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8945,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8982,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9019,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9056,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9093,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9130,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9167,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9204,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9241,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9278,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9315,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9348,15 @@
         <v>64814307.48752556</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9385,15 @@
         <v>64814307.48752556</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9426,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9463,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9500,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9537,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9574,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9611,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9648,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9685,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9722,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9759,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9796,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9833,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9870,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9907,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9944,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9977,17 @@
         <v>64464545.43929578</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>57.2</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +10016,17 @@
         <v>64647218.61079578</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9427,7 +10055,7 @@
         <v>64764543.74979578</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>56.6</v>
@@ -9435,7 +10063,7 @@
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9466,7 +10094,7 @@
         <v>64764543.74979578</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>57</v>
@@ -9505,7 +10133,7 @@
         <v>64764543.74979578</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>57</v>
@@ -9544,7 +10172,7 @@
         <v>64765591.61309578</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>57</v>
@@ -9583,7 +10211,7 @@
         <v>64738233.50739578</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>57.1</v>
@@ -9622,7 +10250,7 @@
         <v>64738233.50739578</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>57</v>
@@ -9661,7 +10289,7 @@
         <v>64738223.50739578</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>57</v>
@@ -9700,7 +10328,7 @@
         <v>64723020.79019578</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>56.9</v>
@@ -9739,7 +10367,7 @@
         <v>64734978.53629578</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>56.4</v>
@@ -9778,7 +10406,7 @@
         <v>64804456.40359578</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>56.5</v>
@@ -9817,7 +10445,7 @@
         <v>64804456.40359578</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>56.9</v>
@@ -9856,7 +10484,7 @@
         <v>64786701.99589577</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>56.9</v>
@@ -9895,7 +10523,7 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>56.6</v>
@@ -9934,7 +10562,7 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>56.9</v>
@@ -9973,7 +10601,7 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>56.9</v>
@@ -10012,7 +10640,7 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>56.9</v>
@@ -10051,7 +10679,7 @@
         <v>64799890.68209577</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>56.9</v>
@@ -10090,7 +10718,7 @@
         <v>64799777.68209577</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>57.2</v>
@@ -10129,7 +10757,7 @@
         <v>64816987.69769578</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>57</v>
@@ -10168,7 +10796,7 @@
         <v>64816987.69769578</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>57.1</v>
@@ -10207,7 +10835,7 @@
         <v>64823306.12497497</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>57.1</v>
@@ -10246,7 +10874,7 @@
         <v>64834970.66867498</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>57.2</v>
@@ -10285,7 +10913,7 @@
         <v>64823226.12617498</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>57.8</v>
@@ -10324,7 +10952,7 @@
         <v>64825251.12617498</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>57.4</v>
@@ -10363,7 +10991,7 @@
         <v>64788419.88077498</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>57.6</v>
@@ -10402,7 +11030,7 @@
         <v>64788419.88077498</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>57.2</v>
@@ -10441,9 +11069,11 @@
         <v>64809164.89327499</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>57.2</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10478,9 +11108,11 @@
         <v>64793186.02627499</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10515,9 +11147,11 @@
         <v>64803426.37227499</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>57.2</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10552,9 +11186,11 @@
         <v>64803426.37227499</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>57.5</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10848,16 +11484,18 @@
         <v>185813144.3113597</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
       <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -10887,7 +11525,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10920,7 +11562,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10953,7 +11599,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10986,7 +11636,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11019,7 +11673,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11052,7 +11710,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11081,11 +11743,15 @@
         <v>175410634.0139739</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11118,7 +11784,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11151,7 +11821,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11184,7 +11858,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11217,7 +11895,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11250,7 +11932,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11279,15 +11965,13 @@
         <v>175336965.396575</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>58.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -11318,11 +12002,9 @@
         <v>175333242.120775</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>58.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11357,11 +12039,9 @@
         <v>175358822.778775</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>57.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11396,11 +12076,9 @@
         <v>175330378.313275</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11435,11 +12113,9 @@
         <v>175360894.3269241</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>57.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11511,11 +12187,9 @@
         <v>175349538.1376241</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11587,11 +12261,9 @@
         <v>175318168.6207241</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11663,11 +12335,9 @@
         <v>175318350.689624</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11702,11 +12372,9 @@
         <v>175318365.483424</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>58.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11741,7 +12409,7 @@
         <v>175311476.451124</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>58.2</v>
@@ -11891,11 +12559,9 @@
         <v>175314816.188224</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>57.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12670,18 +13336,16 @@
         <v>174942807.341024</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -12707,15 +13371,11 @@
         <v>174942807.341024</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12748,11 +13408,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12785,11 +13441,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12818,15 +13470,11 @@
         <v>174942807.341024</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12855,15 +13503,11 @@
         <v>174942807.341024</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12892,15 +13536,11 @@
         <v>174942797.3409241</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12929,15 +13569,11 @@
         <v>174942828.077724</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12966,15 +13602,11 @@
         <v>174942828.077724</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13003,15 +13635,11 @@
         <v>174871603.604124</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13040,15 +13668,11 @@
         <v>174816135.4991241</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13077,15 +13701,11 @@
         <v>174816135.4991241</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13114,15 +13734,11 @@
         <v>174816135.4991241</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13151,15 +13767,11 @@
         <v>174740617.217824</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13188,15 +13800,11 @@
         <v>174740617.217824</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13227,15 +13835,9 @@
       <c r="H366" t="n">
         <v>2</v>
       </c>
-      <c r="I366" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13264,15 +13866,11 @@
         <v>174674629.857824</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13301,17 +13899,11 @@
         <v>174675375.8814924</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>56.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13344,11 +13936,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13381,11 +13969,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13418,11 +14002,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13455,11 +14035,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13492,11 +14068,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13529,11 +14101,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13566,11 +14134,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13603,11 +14167,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13640,11 +14200,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13677,11 +14233,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13714,11 +14266,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13751,11 +14299,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13788,11 +14332,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13825,11 +14365,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13862,11 +14398,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13899,11 +14431,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13936,11 +14464,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13973,11 +14497,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14006,15 +14526,15 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J387" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14043,13 +14563,17 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J388" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L388" t="n">
@@ -14080,13 +14604,17 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J389" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L389" t="n">
@@ -14117,15 +14645,15 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J390" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14154,13 +14682,17 @@
         <v>174688141.1543472</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J391" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L391" t="n">
@@ -14191,10 +14723,14 @@
         <v>174688141.1543472</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J392" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14228,10 +14764,14 @@
         <v>174685032.8919472</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J393" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14265,10 +14805,14 @@
         <v>174685042.8919472</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J394" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14302,10 +14846,14 @@
         <v>174663572.6098472</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J395" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,10 +14887,14 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14376,10 +14928,14 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J397" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14413,10 +14969,14 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J398" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14450,10 +15010,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J399" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,10 +15051,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J400" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14524,10 +15092,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J401" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14561,10 +15133,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J402" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,10 +15174,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J403" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14635,10 +15215,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J404" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,10 +15256,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J405" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14709,10 +15297,14 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J406" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14746,10 +15338,14 @@
         <v>174660196.6288472</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J407" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14783,10 +15379,14 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="J408" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14820,10 +15420,14 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J409" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14857,10 +15461,14 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J410" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14894,10 +15502,14 @@
         <v>174684465.9156472</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J411" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,10 +15543,14 @@
         <v>174684465.9156472</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J412" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14968,10 +15584,14 @@
         <v>174684027.3335472</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J413" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15005,10 +15625,14 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J414" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,10 +15666,14 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J415" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15079,10 +15707,14 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J416" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15116,10 +15748,14 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J417" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15153,10 +15789,14 @@
         <v>174709439.5676472</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J418" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15190,10 +15830,14 @@
         <v>174709461.4639472</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="J419" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,10 +15871,14 @@
         <v>174709161.4639472</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J420" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15264,10 +15912,14 @@
         <v>174709161.4639472</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J421" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15301,10 +15953,14 @@
         <v>174714766.13788</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J422" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15338,10 +15994,14 @@
         <v>174714766.13788</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J423" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15375,10 +16035,14 @@
         <v>174714766.13788</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J424" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15412,10 +16076,14 @@
         <v>174706081.73638</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J425" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15449,10 +16117,14 @@
         <v>174706081.73638</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="J426" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15486,10 +16158,14 @@
         <v>174705203.23638</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="J427" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15523,10 +16199,14 @@
         <v>174719378.3835472</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J428" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15560,10 +16240,14 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J429" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15597,10 +16281,14 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>57</v>
+      </c>
+      <c r="J430" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15634,10 +16322,14 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>57</v>
+      </c>
+      <c r="J431" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15671,10 +16363,14 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>57</v>
+      </c>
+      <c r="J432" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15708,10 +16404,14 @@
         <v>174732631.0644472</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>57</v>
+      </c>
+      <c r="J433" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15745,10 +16445,14 @@
         <v>174733802.8365472</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="J434" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15782,10 +16486,14 @@
         <v>174804647.1381472</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="J435" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15819,10 +16527,14 @@
         <v>174803629.6395472</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="J436" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15856,10 +16568,14 @@
         <v>174803929.6395472</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="J437" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15893,10 +16609,14 @@
         <v>174803909.6395472</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>58</v>
+      </c>
+      <c r="J438" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15930,10 +16650,14 @@
         <v>174826739.1989413</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="J439" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15967,10 +16691,14 @@
         <v>174811071.9020413</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="J440" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16004,10 +16732,14 @@
         <v>174814548.0146413</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="J441" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16041,10 +16773,14 @@
         <v>174814518.0146413</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="J442" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16078,10 +16814,14 @@
         <v>174855444.7359413</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>57</v>
+      </c>
+      <c r="J443" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16115,10 +16855,14 @@
         <v>174854092.4126413</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="J444" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16152,10 +16896,14 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>57</v>
+      </c>
+      <c r="J445" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16189,10 +16937,14 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="J446" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16226,10 +16978,14 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="J447" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16263,10 +17019,14 @@
         <v>174864568.1362073</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="J448" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16300,10 +17060,14 @@
         <v>174864548.1362073</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="J449" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16337,10 +17101,14 @@
         <v>174864548.1362073</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J450" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16374,10 +17142,14 @@
         <v>174858282.0502073</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J451" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16411,10 +17183,14 @@
         <v>174858292.0502073</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="J452" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16448,12 +17224,14 @@
         <v>174858292.0502073</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>57.3</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16487,12 +17265,14 @@
         <v>174834495.3228073</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>57.3</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16526,10 +17306,14 @@
         <v>174831842.9996074</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="J455" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16563,12 +17347,14 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>56.6</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16602,12 +17388,14 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>57.3</v>
       </c>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16641,12 +17429,14 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>57.3</v>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16680,10 +17470,14 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="J459" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16717,12 +17511,14 @@
         <v>174818573.6205074</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>57.3</v>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16756,12 +17552,14 @@
         <v>174818573.6205074</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>56.7</v>
       </c>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16795,12 +17593,14 @@
         <v>174816897.8728074</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>56.7</v>
       </c>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16834,12 +17634,14 @@
         <v>174816897.8728074</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>56.5</v>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16873,12 +17675,14 @@
         <v>174802640.6826074</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>56.5</v>
       </c>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16912,12 +17716,14 @@
         <v>174752956.7070073</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>56.4</v>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16951,12 +17757,14 @@
         <v>174741141.7918074</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>56.3</v>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16990,12 +17798,14 @@
         <v>174741141.7918074</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>56.2</v>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17029,12 +17839,14 @@
         <v>174742078.9289074</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>56.2</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17068,12 +17880,14 @@
         <v>174742078.9289074</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>56.3</v>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17107,12 +17921,14 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>56.3</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17146,12 +17962,14 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>56.4</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17185,12 +18003,14 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>56.4</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17224,12 +18044,14 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>56.4</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17263,10 +18085,14 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J474" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17300,10 +18126,14 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J475" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17337,10 +18167,14 @@
         <v>174744267.0117074</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J476" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17374,10 +18208,14 @@
         <v>174735278.5847074</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J477" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17411,10 +18249,14 @@
         <v>174735278.5847074</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J478" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17448,10 +18290,14 @@
         <v>174734598.4249074</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J479" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17485,10 +18331,14 @@
         <v>174666967.4312074</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="J480" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17522,10 +18372,14 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="J481" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17559,10 +18413,14 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J482" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17596,10 +18454,14 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J483" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17633,10 +18495,14 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J484" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17670,10 +18536,14 @@
         <v>174523084.5761074</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J485" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17707,10 +18577,14 @@
         <v>174523279.7626074</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>56</v>
+      </c>
+      <c r="J486" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17744,10 +18618,14 @@
         <v>174523279.7626074</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="J487" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17781,10 +18659,14 @@
         <v>174538813.5696074</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="J488" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17818,10 +18700,14 @@
         <v>174541583.5594074</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J489" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17855,10 +18741,14 @@
         <v>174543078.8305074</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="J490" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17892,10 +18782,14 @@
         <v>174548127.2820074</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="J491" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17929,10 +18823,14 @@
         <v>174548127.2820074</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J492" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17966,10 +18864,14 @@
         <v>174560663.2008074</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J493" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18003,10 +18905,14 @@
         <v>174597761.7787074</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>57</v>
+      </c>
+      <c r="J494" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18040,10 +18946,14 @@
         <v>174602126.4371453</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="J495" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18077,10 +18987,14 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="J496" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18114,10 +19028,14 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="J497" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18151,10 +19069,14 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="J498" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18166,6 +19088,6 @@
       <c r="M498" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest TRV.xlsx
+++ b/BackTest/2019-10-30 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,11 +1606,17 @@
         <v>-6502780.937400048</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>56</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1645,17 @@
         <v>-7977167.642200047</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>56.6</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1680,7 +1692,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1906,9 +1918,11 @@
         <v>-7514353.36434339</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>57.7</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -1943,9 +1957,11 @@
         <v>-7564793.287095902</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>58</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -1980,9 +1996,11 @@
         <v>-7616143.480695902</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>57.6</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2017,9 +2035,11 @@
         <v>-7669400.092795902</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57.4</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2054,9 +2074,11 @@
         <v>-7823184.531309136</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>57.2</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2091,9 +2113,11 @@
         <v>-7871743.583509136</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>56.4</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2557,11 +2581,9 @@
         <v>-7116553.922139633</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2596,11 +2618,9 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>57.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2635,11 +2655,9 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2674,11 +2692,9 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2713,11 +2729,9 @@
         <v>-7017341.314839632</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2752,11 +2766,9 @@
         <v>-6936147.293837716</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>57.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -3050,11 +3062,9 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>56.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3089,11 +3099,9 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>56.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3165,11 +3173,9 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3500,11 +3506,9 @@
         <v>-5822025.188748147</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>57.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -4131,18 +4135,16 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4168,15 +4170,11 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4205,15 +4203,11 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4242,15 +4236,11 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4283,11 +4273,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4320,11 +4306,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4357,11 +4339,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4394,11 +4372,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4431,11 +4405,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4468,11 +4438,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4471,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4538,15 +4500,11 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4575,15 +4533,11 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4612,15 +4566,11 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4649,15 +4599,11 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4686,15 +4632,11 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4723,15 +4665,11 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4760,15 +4698,11 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4797,15 +4731,11 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4834,15 +4764,11 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4871,15 +4797,11 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4908,15 +4830,11 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4945,15 +4863,11 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4982,15 +4896,11 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5019,15 +4929,11 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5060,11 +4966,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5093,15 +4995,11 @@
         <v>65238891.81211204</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5134,11 +5032,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5171,11 +5065,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5208,11 +5098,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5245,11 +5131,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5282,11 +5164,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5319,11 +5197,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5356,11 +5230,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5393,11 +5263,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5430,11 +5296,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5329,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5504,11 +5362,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5541,11 +5395,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5578,11 +5428,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5615,11 +5461,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5652,11 +5494,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +5527,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5726,11 +5560,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +5593,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5800,11 +5626,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5837,11 +5659,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5874,11 +5692,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5911,11 +5725,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +5758,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5985,11 +5791,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6022,11 +5824,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6059,11 +5857,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6096,11 +5890,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6133,11 +5923,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6170,11 +5956,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6207,11 +5989,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +6022,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +6055,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6318,11 +6088,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +6121,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6392,11 +6154,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6429,11 +6187,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6466,11 +6220,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6503,11 +6253,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6540,11 +6286,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6577,11 +6319,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +6352,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6651,11 +6385,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6418,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6725,11 +6451,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6762,11 +6484,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6799,11 +6517,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6836,11 +6550,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6873,11 +6583,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +6616,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6947,11 +6649,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +6682,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7021,11 +6715,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7058,11 +6748,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7095,11 +6781,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7132,11 +6814,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7169,11 +6847,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7206,11 +6880,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7243,11 +6913,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7280,11 +6946,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7317,11 +6979,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7354,11 +7012,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7391,11 +7045,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7428,11 +7078,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7465,11 +7111,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7502,11 +7144,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7539,11 +7177,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7576,11 +7210,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7613,11 +7243,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7276,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7687,11 +7309,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7724,11 +7342,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7761,11 +7375,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7798,11 +7408,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +7441,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7474,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7507,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7946,11 +7540,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7983,11 +7573,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +7606,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +7639,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8094,11 +7672,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +7705,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8168,11 +7738,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8205,11 +7771,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +7804,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8279,11 +7837,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8316,11 +7870,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8353,11 +7903,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8390,11 +7936,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8427,11 +7969,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8464,11 +8002,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8501,11 +8035,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8538,11 +8068,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8575,11 +8101,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8612,11 +8134,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8649,11 +8167,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +8200,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8723,11 +8233,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8760,11 +8266,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8797,11 +8299,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8834,11 +8332,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8871,11 +8365,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8908,11 +8398,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8945,11 +8431,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8464,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +8497,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +8530,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9093,11 +8563,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +8596,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +8629,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9204,11 +8662,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +8695,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9278,11 +8728,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9315,11 +8761,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9352,11 +8794,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +8827,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9426,11 +8860,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +8893,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9500,11 +8926,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9537,11 +8959,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9574,11 +8992,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9611,11 +9025,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9648,11 +9058,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9685,11 +9091,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9722,11 +9124,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9759,11 +9157,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9796,11 +9190,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9833,11 +9223,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9870,11 +9256,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9907,11 +9289,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9944,11 +9322,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9977,17 +9351,11 @@
         <v>64464545.43929578</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10016,17 +9384,11 @@
         <v>64647218.61079578</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>56.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10055,17 +9417,11 @@
         <v>64764543.74979578</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>56.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10094,17 +9450,11 @@
         <v>64764543.74979578</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10133,17 +9483,11 @@
         <v>64764543.74979578</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10172,17 +9516,11 @@
         <v>64765591.61309578</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10211,17 +9549,11 @@
         <v>64738233.50739578</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>57.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10250,17 +9582,11 @@
         <v>64738233.50739578</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10289,17 +9615,11 @@
         <v>64738223.50739578</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10328,17 +9648,11 @@
         <v>64723020.79019578</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10367,17 +9681,11 @@
         <v>64734978.53629578</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>56.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10406,17 +9714,11 @@
         <v>64804456.40359578</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>56.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10445,17 +9747,11 @@
         <v>64804456.40359578</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10484,17 +9780,11 @@
         <v>64786701.99589577</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10523,17 +9813,11 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>56.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10562,17 +9846,11 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10601,17 +9879,11 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10640,17 +9912,11 @@
         <v>64787890.68209577</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10679,17 +9945,11 @@
         <v>64799890.68209577</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10718,17 +9978,11 @@
         <v>64799777.68209577</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10757,17 +10011,11 @@
         <v>64816987.69769578</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10796,17 +10044,11 @@
         <v>64816987.69769578</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>57.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10835,17 +10077,11 @@
         <v>64823306.12497497</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>57.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10874,17 +10110,11 @@
         <v>64834970.66867498</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10913,17 +10143,11 @@
         <v>64823226.12617498</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>57.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10952,17 +10176,11 @@
         <v>64825251.12617498</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10991,17 +10209,11 @@
         <v>64788419.88077498</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>57.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11030,17 +10242,11 @@
         <v>64788419.88077498</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11069,17 +10275,11 @@
         <v>64809164.89327499</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11108,17 +10308,11 @@
         <v>64793186.02627499</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11147,17 +10341,11 @@
         <v>64803426.37227499</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11186,17 +10374,11 @@
         <v>64803426.37227499</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>57.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11229,11 +10411,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11266,11 +10444,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11303,11 +10477,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11340,11 +10510,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11377,11 +10543,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11414,11 +10576,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11451,11 +10609,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11488,11 +10642,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11525,11 +10675,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11562,11 +10708,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11599,11 +10741,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11636,11 +10774,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11673,11 +10807,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11710,11 +10840,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11747,11 +10873,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11784,11 +10906,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11821,11 +10939,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11858,11 +10972,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11895,11 +11005,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11932,11 +11038,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11969,11 +11071,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12006,11 +11104,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12043,11 +11137,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12080,11 +11170,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12117,11 +11203,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12154,11 +11236,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12191,11 +11269,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12228,11 +11302,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +11335,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12302,11 +11368,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12339,11 +11401,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12376,11 +11434,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12409,17 +11463,11 @@
         <v>175311476.451124</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>58.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12452,11 +11500,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12489,11 +11533,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12526,11 +11566,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12563,11 +11599,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12600,11 +11632,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12637,11 +11665,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12674,11 +11698,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12711,11 +11731,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12748,11 +11764,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12785,11 +11797,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12822,11 +11830,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +11863,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12896,11 +11896,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12933,11 +11929,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12970,11 +11962,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13007,11 +11995,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13044,11 +12028,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13081,11 +12061,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +12094,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13155,11 +12127,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13192,11 +12160,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13229,11 +12193,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13266,11 +12226,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13303,11 +12259,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13336,16 +12288,14 @@
         <v>174942807.341024</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
       <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -13371,7 +12321,7 @@
         <v>174942807.341024</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13470,7 +12420,7 @@
         <v>174942807.341024</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13503,7 +12453,7 @@
         <v>174942807.341024</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13536,7 +12486,7 @@
         <v>174942797.3409241</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13569,7 +12519,7 @@
         <v>174942828.077724</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13602,7 +12552,7 @@
         <v>174942828.077724</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13635,7 +12585,7 @@
         <v>174871603.604124</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13668,7 +12618,7 @@
         <v>174816135.4991241</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13701,7 +12651,7 @@
         <v>174816135.4991241</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13734,7 +12684,7 @@
         <v>174816135.4991241</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13767,7 +12717,7 @@
         <v>174740617.217824</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13800,7 +12750,7 @@
         <v>174740617.217824</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13833,7 +12783,7 @@
         <v>174578398.942324</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13866,7 +12816,7 @@
         <v>174674629.857824</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14526,14 +13476,10 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J387" t="n">
-        <v>56.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
@@ -14563,19 +13509,11 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J388" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14604,19 +13542,11 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J389" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14645,14 +13575,10 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J390" t="n">
-        <v>56.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
@@ -14682,19 +13608,11 @@
         <v>174688141.1543472</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J391" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14723,19 +13641,11 @@
         <v>174688141.1543472</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J392" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14764,19 +13674,11 @@
         <v>174685032.8919472</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J393" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14805,19 +13707,11 @@
         <v>174685042.8919472</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J394" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14846,19 +13740,11 @@
         <v>174663572.6098472</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J395" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14887,19 +13773,11 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J396" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14928,19 +13806,11 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J397" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14969,19 +13839,11 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J398" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15010,19 +13872,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J399" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15051,19 +13905,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J400" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15092,19 +13938,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J401" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15133,19 +13971,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J402" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15174,19 +14004,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J403" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15215,19 +14037,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J404" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15256,19 +14070,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J405" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15297,19 +14103,11 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J406" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15338,19 +14136,11 @@
         <v>174660196.6288472</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J407" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15379,19 +14169,11 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="J408" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15420,19 +14202,11 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J409" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15461,19 +14235,11 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J410" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15502,19 +14268,11 @@
         <v>174684465.9156472</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J411" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15543,19 +14301,11 @@
         <v>174684465.9156472</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J412" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15584,19 +14334,11 @@
         <v>174684027.3335472</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J413" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15625,19 +14367,11 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J414" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15666,19 +14400,11 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J415" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15707,19 +14433,11 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J416" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15748,19 +14466,11 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J417" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15789,19 +14499,11 @@
         <v>174709439.5676472</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J418" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15830,19 +14532,11 @@
         <v>174709461.4639472</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J419" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15871,19 +14565,11 @@
         <v>174709161.4639472</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J420" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15912,19 +14598,11 @@
         <v>174709161.4639472</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J421" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15953,19 +14631,11 @@
         <v>174714766.13788</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J422" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15994,19 +14664,11 @@
         <v>174714766.13788</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J423" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16035,19 +14697,11 @@
         <v>174714766.13788</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J424" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16076,19 +14730,11 @@
         <v>174706081.73638</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J425" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16117,19 +14763,11 @@
         <v>174706081.73638</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J426" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16158,19 +14796,11 @@
         <v>174705203.23638</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J427" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16199,19 +14829,11 @@
         <v>174719378.3835472</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J428" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16240,19 +14862,11 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J429" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16281,19 +14895,11 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>57</v>
-      </c>
-      <c r="J430" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16322,19 +14928,11 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>57</v>
-      </c>
-      <c r="J431" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16363,19 +14961,11 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>57</v>
-      </c>
-      <c r="J432" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16404,19 +14994,11 @@
         <v>174732631.0644472</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>57</v>
-      </c>
-      <c r="J433" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16445,19 +15027,11 @@
         <v>174733802.8365472</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="J434" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16486,19 +15060,11 @@
         <v>174804647.1381472</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="J435" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16527,19 +15093,11 @@
         <v>174803629.6395472</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="J436" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16568,19 +15126,11 @@
         <v>174803929.6395472</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="J437" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16609,19 +15159,11 @@
         <v>174803909.6395472</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>58</v>
-      </c>
-      <c r="J438" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16650,19 +15192,11 @@
         <v>174826739.1989413</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="J439" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16691,19 +15225,11 @@
         <v>174811071.9020413</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="J440" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16732,19 +15258,11 @@
         <v>174814548.0146413</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="J441" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16773,19 +15291,11 @@
         <v>174814518.0146413</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="J442" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16814,19 +15324,11 @@
         <v>174855444.7359413</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>57</v>
-      </c>
-      <c r="J443" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16855,19 +15357,11 @@
         <v>174854092.4126413</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="J444" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16896,19 +15390,11 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>57</v>
-      </c>
-      <c r="J445" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16937,19 +15423,11 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J446" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16978,19 +15456,11 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J447" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17019,19 +15489,11 @@
         <v>174864568.1362073</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J448" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17060,19 +15522,11 @@
         <v>174864548.1362073</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="J449" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17101,19 +15555,11 @@
         <v>174864548.1362073</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J450" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17142,19 +15588,11 @@
         <v>174858282.0502073</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J451" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17183,19 +15621,11 @@
         <v>174858292.0502073</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="J452" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17224,19 +15654,11 @@
         <v>174858292.0502073</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J453" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17265,19 +15687,11 @@
         <v>174834495.3228073</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J454" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17306,19 +15720,11 @@
         <v>174831842.9996074</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J455" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17347,19 +15753,11 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J456" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17388,19 +15786,11 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J457" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17429,19 +15819,11 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J458" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17470,19 +15852,11 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J459" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17511,19 +15885,11 @@
         <v>174818573.6205074</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J460" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17552,19 +15918,11 @@
         <v>174818573.6205074</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J461" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17593,19 +15951,11 @@
         <v>174816897.8728074</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J462" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17634,19 +15984,11 @@
         <v>174816897.8728074</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J463" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17675,19 +16017,11 @@
         <v>174802640.6826074</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J464" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17716,19 +16050,11 @@
         <v>174752956.7070073</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J465" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17757,19 +16083,11 @@
         <v>174741141.7918074</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="J466" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17798,19 +16116,11 @@
         <v>174741141.7918074</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="J467" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17839,19 +16149,11 @@
         <v>174742078.9289074</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="J468" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17880,19 +16182,11 @@
         <v>174742078.9289074</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="J469" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17921,19 +16215,11 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="J470" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17962,19 +16248,11 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J471" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18003,19 +16281,11 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J472" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18044,19 +16314,11 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J473" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18085,19 +16347,11 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J474" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18126,19 +16380,11 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J475" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18167,19 +16413,11 @@
         <v>174744267.0117074</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J476" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18208,19 +16446,11 @@
         <v>174735278.5847074</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J477" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18249,19 +16479,11 @@
         <v>174735278.5847074</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J478" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18290,19 +16512,11 @@
         <v>174734598.4249074</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J479" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18331,19 +16545,11 @@
         <v>174666967.4312074</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="J480" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18372,19 +16578,11 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="J481" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18413,19 +16611,11 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J482" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18454,19 +16644,11 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J483" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18495,19 +16677,11 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J484" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18536,19 +16710,11 @@
         <v>174523084.5761074</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J485" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18577,19 +16743,11 @@
         <v>174523279.7626074</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>56</v>
-      </c>
-      <c r="J486" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18618,19 +16776,11 @@
         <v>174523279.7626074</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="J487" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18659,19 +16809,11 @@
         <v>174538813.5696074</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="J488" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18700,19 +16842,11 @@
         <v>174541583.5594074</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J489" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18741,19 +16875,11 @@
         <v>174543078.8305074</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J490" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18782,19 +16908,11 @@
         <v>174548127.2820074</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J491" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18823,19 +16941,11 @@
         <v>174548127.2820074</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J492" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18864,19 +16974,11 @@
         <v>174560663.2008074</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J493" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18905,19 +17007,11 @@
         <v>174597761.7787074</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>57</v>
-      </c>
-      <c r="J494" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18946,19 +17040,11 @@
         <v>174602126.4371453</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="J495" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18987,19 +17073,11 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="J496" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19028,19 +17106,11 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="J497" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19069,25 +17139,17 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="J498" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
       <c r="M498" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest TRV.xlsx
+++ b/BackTest/2019-10-30 BackTest TRV.xlsx
@@ -1606,17 +1606,11 @@
         <v>-6502780.937400048</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1645,17 +1639,11 @@
         <v>-7977167.642200047</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>56.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1684,17 +1672,11 @@
         <v>-8055132.06295719</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,17 +1705,11 @@
         <v>-7991582.697484654</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>55.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1770,7 +1746,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1957,11 +1933,9 @@
         <v>-7564793.287095902</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -1996,11 +1970,9 @@
         <v>-7616143.480695902</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2035,11 +2007,9 @@
         <v>-7669400.092795902</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2074,11 +2044,9 @@
         <v>-7823184.531309136</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2113,11 +2081,9 @@
         <v>-7871743.583509136</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>56.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2581,9 +2547,11 @@
         <v>-7116553.922139633</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>57.4</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2618,9 +2586,11 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>57.1</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2655,9 +2625,11 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2692,9 +2664,11 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2729,9 +2703,11 @@
         <v>-7017341.314839632</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2766,9 +2742,11 @@
         <v>-6936147.293837716</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>57.5</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2988,9 +2966,11 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>56.8</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3025,9 +3005,11 @@
         <v>-6907293.580643506</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>56.8</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3062,9 +3044,11 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>56.7</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3099,9 +3083,11 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>56.8</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3136,9 +3122,11 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>56.6</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3173,9 +3161,11 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>57</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -4135,16 +4125,18 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4170,11 +4162,15 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4203,11 +4199,15 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4236,11 +4236,15 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4277,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4306,7 +4314,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4339,7 +4351,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4372,7 +4388,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4405,7 +4425,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4438,7 +4462,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4471,7 +4499,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4532,15 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +4569,15 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4566,11 +4606,15 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4643,15 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4632,11 +4680,15 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4717,15 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +4754,15 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4731,11 +4791,15 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4764,11 +4828,15 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4797,11 +4865,15 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4830,11 +4902,15 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +4939,15 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +4976,15 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4929,11 +5013,15 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4966,7 +5054,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +5087,15 @@
         <v>65238891.81211204</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5032,7 +5128,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5065,7 +5165,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5098,7 +5202,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5131,7 +5239,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5164,7 +5276,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5197,7 +5313,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5230,7 +5350,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5263,7 +5387,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5296,7 +5424,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5329,7 +5461,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5362,7 +5498,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5395,7 +5535,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5572,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5461,7 +5609,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5494,7 +5646,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5527,7 +5683,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5560,7 +5720,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5589,14 +5753,16 @@
         <v>64976235.88946924</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -5622,7 +5788,7 @@
         <v>65035443.76696923</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5655,7 +5821,7 @@
         <v>65055615.69898184</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5688,7 +5854,7 @@
         <v>65097978.55568185</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5721,7 +5887,7 @@
         <v>65091413.38138185</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5754,7 +5920,7 @@
         <v>65034032.14468185</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5787,7 +5953,7 @@
         <v>64946668.96818185</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5820,7 +5986,7 @@
         <v>64944879.42768185</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5853,7 +6019,7 @@
         <v>64946430.04002675</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5886,7 +6052,7 @@
         <v>64946366.62112675</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5919,7 +6085,7 @@
         <v>64977945.67034627</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5952,7 +6118,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5985,7 +6151,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6018,7 +6184,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6051,7 +6217,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6084,7 +6250,7 @@
         <v>65003362.96244628</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6117,7 +6283,7 @@
         <v>65048455.81834628</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6150,7 +6316,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6183,7 +6349,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6216,7 +6382,7 @@
         <v>65237452.40174627</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6249,7 +6415,7 @@
         <v>65404319.34709283</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6282,7 +6448,7 @@
         <v>65386628.70929283</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6315,7 +6481,7 @@
         <v>65341337.38999283</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6348,7 +6514,7 @@
         <v>65213886.81339283</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6381,7 +6547,7 @@
         <v>65336132.67319283</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6414,7 +6580,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6447,7 +6613,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6480,7 +6646,7 @@
         <v>65187796.45569283</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6513,7 +6679,7 @@
         <v>65133664.85709283</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6546,7 +6712,7 @@
         <v>65195712.92089283</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6579,7 +6745,7 @@
         <v>65202926.80559283</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6612,7 +6778,7 @@
         <v>65238923.34139283</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6645,7 +6811,7 @@
         <v>65208640.53979283</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6678,7 +6844,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6711,7 +6877,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6744,7 +6910,7 @@
         <v>65166531.88099283</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6777,7 +6943,7 @@
         <v>65034220.85809283</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6810,7 +6976,7 @@
         <v>65034726.77734915</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6843,7 +7009,7 @@
         <v>65034051.95623799</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6876,7 +7042,7 @@
         <v>65014944.65864574</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6909,7 +7075,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6942,7 +7108,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6975,7 +7141,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7008,7 +7174,7 @@
         <v>64968802.81972526</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7041,7 +7207,7 @@
         <v>64952745.54342526</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7074,7 +7240,7 @@
         <v>64955598.26982526</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7107,7 +7273,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7140,7 +7306,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7173,7 +7339,7 @@
         <v>64975204.89502527</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7206,7 +7372,7 @@
         <v>65122797.32680479</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7239,7 +7405,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7272,7 +7438,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7305,7 +7471,7 @@
         <v>65117149.96704262</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7338,7 +7504,7 @@
         <v>65159472.46466635</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7371,7 +7537,7 @@
         <v>65018805.09466635</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7404,7 +7570,7 @@
         <v>65012733.30346636</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7437,7 +7603,7 @@
         <v>65023062.01536636</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7470,7 +7636,7 @@
         <v>65022324.81616636</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7503,7 +7669,7 @@
         <v>65007240.12046637</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7536,7 +7702,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7569,7 +7735,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7602,7 +7768,7 @@
         <v>65057917.99266637</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7635,7 +7801,7 @@
         <v>65017285.87502556</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7668,7 +7834,7 @@
         <v>65008822.46382556</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7701,7 +7867,7 @@
         <v>64989131.29112556</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7734,7 +7900,7 @@
         <v>65012883.88062556</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7767,7 +7933,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7800,7 +7966,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7833,7 +7999,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7866,7 +8032,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7899,7 +8065,7 @@
         <v>65042283.07302556</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7932,7 +8098,7 @@
         <v>65042273.07302556</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7965,7 +8131,7 @@
         <v>65075388.43332556</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7998,7 +8164,7 @@
         <v>65104314.02852556</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8031,7 +8197,7 @@
         <v>65120345.34452556</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8064,7 +8230,7 @@
         <v>65114313.39542556</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8097,7 +8263,7 @@
         <v>65114303.39542556</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8130,7 +8296,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8163,7 +8329,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8196,7 +8362,7 @@
         <v>65075653.38762556</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8229,7 +8395,7 @@
         <v>65127818.19842556</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8262,7 +8428,7 @@
         <v>65145543.88372556</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8295,7 +8461,7 @@
         <v>64983341.46762556</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8328,7 +8494,7 @@
         <v>64934306.87402556</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8361,7 +8527,7 @@
         <v>65058558.97152556</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8394,7 +8560,7 @@
         <v>65068488.97152556</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8427,7 +8593,7 @@
         <v>65039997.56642555</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8460,7 +8626,7 @@
         <v>64865427.81382556</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8493,7 +8659,7 @@
         <v>64817657.36172555</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8526,7 +8692,7 @@
         <v>64866400.86082555</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8559,7 +8725,7 @@
         <v>64929589.17572556</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8592,7 +8758,7 @@
         <v>64977827.43582556</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8625,7 +8791,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8658,7 +8824,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8691,7 +8857,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8724,7 +8890,7 @@
         <v>64808987.05032556</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8922,7 +9088,7 @@
         <v>64682250.97812556</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10539,7 +10705,7 @@
         <v>168765426.093575</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10572,7 +10738,7 @@
         <v>185791533.324275</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10605,7 +10771,7 @@
         <v>185791533.324275</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
